--- a/Data/Raw_Clean_Data.xlsx
+++ b/Data/Raw_Clean_Data.xlsx
@@ -2163,7 +2163,7 @@
         <v>2918</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D68:D131" si="1">((C70-B70)/B70)*100</f>
+        <f t="shared" ref="D70:D131" si="1">((C70-B70)/B70)*100</f>
         <v>66.742857142857147</v>
       </c>
     </row>
